--- a/GPA_Calculator/Grades.xlsx
+++ b/GPA_Calculator/Grades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Junior Year"/>
@@ -628,168 +628,6 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3.75</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,6 +654,168 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
